--- a/ITI/BALP/StructureDefinition-IHE.BasicAudit.PrivacyDisclosure.Recipient.xlsx
+++ b/ITI/BALP/StructureDefinition-IHE.BasicAudit.PrivacyDisclosure.Recipient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T10:16:52-05:00</t>
+    <t>2022-10-21T09:04:31-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -280,10 +280,6 @@
     <t>Based on IHE-ATNA.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -302,7 +298,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -677,6 +673,10 @@
   </si>
   <si>
     <t>AuditEvent.outcomeDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Description of the event outcome</t>
@@ -1979,14 +1979,14 @@
     <col min="1" max="1" width="41.4609375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.90234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.73828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.7421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1995,28 +1995,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.08984375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="73.9296875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="51.4453125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="73.93359375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="51.44921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="51.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="51.69921875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.3046875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.87890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="155.37890625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="49.38671875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="49.390625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="34.4140625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="40.0" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="40.00390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2240,16 +2240,16 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>78</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2274,28 +2274,28 @@
         <v>79</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2345,13 +2345,13 @@
         <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>78</v>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2391,25 +2391,25 @@
         <v>79</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2460,19 +2460,19 @@
         <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>78</v>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2506,28 +2506,28 @@
         <v>79</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2577,19 +2577,19 @@
         <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>78</v>
@@ -2612,7 +2612,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2623,7 +2623,7 @@
         <v>79</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>78</v>
@@ -2635,16 +2635,16 @@
         <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2670,43 +2670,43 @@
         <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>78</v>
@@ -2729,18 +2729,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>78</v>
@@ -2752,16 +2752,16 @@
         <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2811,25 +2811,25 @@
         <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>78</v>
@@ -2846,11 +2846,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2869,16 +2869,16 @@
         <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2928,7 +2928,7 @@
         <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>79</v>
@@ -2946,7 +2946,7 @@
         <v>78</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>78</v>
@@ -2963,11 +2963,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2986,16 +2986,16 @@
         <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -3045,7 +3045,7 @@
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>79</v>
@@ -3057,13 +3057,13 @@
         <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>78</v>
@@ -3080,7 +3080,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -3097,19 +3097,19 @@
         <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -3160,7 +3160,7 @@
         <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>79</v>
@@ -3172,7 +3172,7 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>78</v>
@@ -3195,7 +3195,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3203,32 +3203,32 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I11" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F11" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>78</v>
@@ -3238,73 +3238,73 @@
         <v>78</v>
       </c>
       <c r="R11" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="S11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W11" t="s" s="2">
+      <c r="X11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="X11" t="s" s="2">
+      <c r="Y11" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="Z11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
+      <c r="AK11" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>78</v>
@@ -3312,7 +3312,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3320,7 +3320,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>80</v>
@@ -3332,20 +3332,20 @@
         <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>78</v>
@@ -3370,31 +3370,31 @@
         <v>78</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X12" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="Y12" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA12" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Z12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA12" t="s" s="2">
+      <c r="AB12" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="AB12" t="s" s="2">
+      <c r="AC12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD12" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AC12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>167</v>
-      </c>
       <c r="AE12" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>79</v>
@@ -3406,19 +3406,19 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>78</v>
@@ -3429,42 +3429,42 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I13" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F13" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J13" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>78</v>
@@ -3474,7 +3474,7 @@
         <v>78</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>78</v>
@@ -3489,14 +3489,14 @@
         <v>78</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="Y13" t="s" s="2">
-        <v>164</v>
-      </c>
       <c r="Z13" t="s" s="2">
         <v>78</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>79</v>
@@ -3525,19 +3525,19 @@
         <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>78</v>
@@ -3548,7 +3548,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3559,29 +3559,29 @@
         <v>79</v>
       </c>
       <c r="F14" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J14" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>78</v>
@@ -3591,70 +3591,70 @@
         <v>78</v>
       </c>
       <c r="R14" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W14" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="S14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W14" t="s" s="2">
+      <c r="X14" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>179</v>
-      </c>
       <c r="AM14" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>78</v>
@@ -3665,7 +3665,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3676,7 +3676,7 @@
         <v>79</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>78</v>
@@ -3688,16 +3688,16 @@
         <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3747,42 +3747,42 @@
         <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>190</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3790,34 +3790,34 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F16" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J16" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>78</v>
@@ -3866,42 +3866,42 @@
         <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AL16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>200</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3909,31 +3909,31 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F17" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3959,55 +3959,55 @@
         <v>78</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Y17" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AL17" t="s" s="2">
-        <v>207</v>
-      </c>
       <c r="AM17" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>78</v>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4029,19 +4029,19 @@
         <v>79</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G18" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>209</v>
@@ -4098,19 +4098,19 @@
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>78</v>
@@ -4122,7 +4122,7 @@
         <v>212</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>78</v>
@@ -4147,13 +4147,13 @@
         <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>214</v>
@@ -4191,7 +4191,7 @@
         <v>78</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X19" t="s" s="2">
         <v>218</v>
@@ -4227,7 +4227,7 @@
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>220</v>
@@ -4331,13 +4331,13 @@
         <v>78</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>226</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4346,7 +4346,7 @@
         <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>236</v>
@@ -4380,7 +4380,7 @@
         <v>79</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>78</v>
@@ -4392,7 +4392,7 @@
         <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>243</v>
@@ -4455,7 +4455,7 @@
         <v>79</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>78</v>
@@ -4488,7 +4488,7 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4507,16 +4507,16 @@
         <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>248</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4578,7 +4578,7 @@
         <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>78</v>
@@ -4618,13 +4618,13 @@
         <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>252</v>
@@ -4633,7 +4633,7 @@
         <v>253</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N23" t="s" s="2">
         <v>254</v>
@@ -4697,13 +4697,13 @@
         <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>78</v>
@@ -4731,7 +4731,7 @@
         <v>79</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>78</v>
@@ -4776,7 +4776,7 @@
         <v>78</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X24" t="s" s="2">
         <v>259</v>
@@ -4806,13 +4806,13 @@
         <v>79</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>261</v>
@@ -4931,7 +4931,7 @@
         <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>78</v>
@@ -4965,16 +4965,16 @@
         <v>79</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>278</v>
@@ -5044,13 +5044,13 @@
         <v>79</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>283</v>
@@ -5084,7 +5084,7 @@
         <v>79</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>78</v>
@@ -5096,7 +5096,7 @@
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>289</v>
@@ -5161,13 +5161,13 @@
         <v>79</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>78</v>
@@ -5201,7 +5201,7 @@
         <v>79</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>78</v>
@@ -5213,7 +5213,7 @@
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>295</v>
@@ -5278,13 +5278,13 @@
         <v>79</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>78</v>
@@ -5315,19 +5315,19 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F29" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>301</v>
@@ -5394,16 +5394,16 @@
         <v>300</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>78</v>
@@ -5437,7 +5437,7 @@
         <v>79</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>78</v>
@@ -5512,13 +5512,13 @@
         <v>79</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>312</v>
@@ -5564,7 +5564,7 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>318</v>
@@ -5637,7 +5637,7 @@
         <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>78</v>
@@ -5671,7 +5671,7 @@
         <v>79</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>78</v>
@@ -5683,7 +5683,7 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>326</v>
@@ -5718,7 +5718,7 @@
         <v>78</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X32" t="s" s="2">
         <v>329</v>
@@ -5748,13 +5748,13 @@
         <v>79</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>78</v>
@@ -5788,7 +5788,7 @@
         <v>79</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>78</v>
@@ -5863,13 +5863,13 @@
         <v>79</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>78</v>
@@ -5903,7 +5903,7 @@
         <v>79</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>78</v>
@@ -5915,7 +5915,7 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>243</v>
@@ -5978,7 +5978,7 @@
         <v>79</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>78</v>
@@ -6011,7 +6011,7 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -6030,16 +6030,16 @@
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>248</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6101,7 +6101,7 @@
         <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>78</v>
@@ -6141,13 +6141,13 @@
         <v>78</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>252</v>
@@ -6156,7 +6156,7 @@
         <v>253</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N36" t="s" s="2">
         <v>254</v>
@@ -6220,13 +6220,13 @@
         <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>78</v>
@@ -6254,7 +6254,7 @@
         <v>79</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>78</v>
@@ -6266,7 +6266,7 @@
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>341</v>
@@ -6333,13 +6333,13 @@
         <v>79</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>78</v>
@@ -6373,7 +6373,7 @@
         <v>79</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>78</v>
@@ -6385,7 +6385,7 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>349</v>
@@ -6420,7 +6420,7 @@
         <v>78</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X38" t="s" s="2">
         <v>352</v>
@@ -6450,13 +6450,13 @@
         <v>79</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>78</v>
@@ -6537,7 +6537,7 @@
         <v>78</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X39" t="s" s="2">
         <v>218</v>
@@ -6573,7 +6573,7 @@
         <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>78</v>
@@ -6606,10 +6606,10 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>78</v>
@@ -6685,7 +6685,7 @@
         <v>226</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6694,7 +6694,7 @@
         <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>236</v>
@@ -6728,7 +6728,7 @@
         <v>79</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>78</v>
@@ -6740,7 +6740,7 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>243</v>
@@ -6803,7 +6803,7 @@
         <v>79</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>78</v>
@@ -6836,7 +6836,7 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6855,16 +6855,16 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L42" t="s" s="2">
         <v>248</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6926,7 +6926,7 @@
         <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>78</v>
@@ -6966,13 +6966,13 @@
         <v>78</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>252</v>
@@ -6981,7 +6981,7 @@
         <v>253</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N43" t="s" s="2">
         <v>254</v>
@@ -7045,13 +7045,13 @@
         <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>78</v>
@@ -7076,10 +7076,10 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>78</v>
@@ -7124,7 +7124,7 @@
         <v>78</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X44" t="s" s="2">
         <v>259</v>
@@ -7154,13 +7154,13 @@
         <v>79</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>261</v>
@@ -7279,7 +7279,7 @@
         <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>78</v>
@@ -7310,19 +7310,19 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I46" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F46" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>278</v>
@@ -7392,13 +7392,13 @@
         <v>79</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>283</v>
@@ -7432,7 +7432,7 @@
         <v>79</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>78</v>
@@ -7444,7 +7444,7 @@
         <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>289</v>
@@ -7509,13 +7509,13 @@
         <v>79</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>78</v>
@@ -7549,7 +7549,7 @@
         <v>79</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>78</v>
@@ -7561,7 +7561,7 @@
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>295</v>
@@ -7626,13 +7626,13 @@
         <v>79</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>78</v>
@@ -7663,19 +7663,19 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I49" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F49" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>301</v>
@@ -7742,16 +7742,16 @@
         <v>300</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>78</v>
@@ -7785,7 +7785,7 @@
         <v>79</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>78</v>
@@ -7860,13 +7860,13 @@
         <v>79</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>312</v>
@@ -7912,7 +7912,7 @@
         <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>318</v>
@@ -7985,7 +7985,7 @@
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>78</v>
@@ -8019,7 +8019,7 @@
         <v>79</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>78</v>
@@ -8031,7 +8031,7 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>326</v>
@@ -8066,7 +8066,7 @@
         <v>78</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X52" t="s" s="2">
         <v>329</v>
@@ -8096,13 +8096,13 @@
         <v>79</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>78</v>
@@ -8133,10 +8133,10 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>78</v>
@@ -8211,13 +8211,13 @@
         <v>79</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>78</v>
@@ -8251,7 +8251,7 @@
         <v>79</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>78</v>
@@ -8263,7 +8263,7 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>243</v>
@@ -8326,7 +8326,7 @@
         <v>79</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>78</v>
@@ -8359,7 +8359,7 @@
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8378,16 +8378,16 @@
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>248</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8449,7 +8449,7 @@
         <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>78</v>
@@ -8489,13 +8489,13 @@
         <v>78</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>252</v>
@@ -8504,7 +8504,7 @@
         <v>253</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>254</v>
@@ -8568,13 +8568,13 @@
         <v>78</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>78</v>
@@ -8602,7 +8602,7 @@
         <v>79</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>78</v>
@@ -8614,7 +8614,7 @@
         <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>341</v>
@@ -8681,13 +8681,13 @@
         <v>79</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>78</v>
@@ -8721,7 +8721,7 @@
         <v>79</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>78</v>
@@ -8733,7 +8733,7 @@
         <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>349</v>
@@ -8768,7 +8768,7 @@
         <v>78</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X58" t="s" s="2">
         <v>352</v>
@@ -8798,13 +8798,13 @@
         <v>79</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>78</v>
@@ -8885,7 +8885,7 @@
         <v>78</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X59" t="s" s="2">
         <v>218</v>
@@ -8921,7 +8921,7 @@
         <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>78</v>
@@ -8954,10 +8954,10 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>78</v>
@@ -9033,7 +9033,7 @@
         <v>226</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9076,7 +9076,7 @@
         <v>79</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>78</v>
@@ -9088,7 +9088,7 @@
         <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>243</v>
@@ -9151,7 +9151,7 @@
         <v>79</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>78</v>
@@ -9184,7 +9184,7 @@
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9203,16 +9203,16 @@
         <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L62" t="s" s="2">
         <v>248</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9274,7 +9274,7 @@
         <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>78</v>
@@ -9314,13 +9314,13 @@
         <v>78</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>252</v>
@@ -9329,7 +9329,7 @@
         <v>253</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>254</v>
@@ -9393,13 +9393,13 @@
         <v>78</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>78</v>
@@ -9424,10 +9424,10 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>78</v>
@@ -9472,7 +9472,7 @@
         <v>78</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X64" t="s" s="2">
         <v>259</v>
@@ -9502,13 +9502,13 @@
         <v>79</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>261</v>
@@ -9627,7 +9627,7 @@
         <v>78</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>78</v>
@@ -9658,19 +9658,19 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I66" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F66" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J66" t="s" s="2">
         <v>278</v>
@@ -9740,13 +9740,13 @@
         <v>79</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>283</v>
@@ -9780,7 +9780,7 @@
         <v>79</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>78</v>
@@ -9792,7 +9792,7 @@
         <v>78</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>289</v>
@@ -9857,13 +9857,13 @@
         <v>79</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>78</v>
@@ -9897,7 +9897,7 @@
         <v>79</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>78</v>
@@ -9909,7 +9909,7 @@
         <v>78</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K68" t="s" s="2">
         <v>295</v>
@@ -9974,13 +9974,13 @@
         <v>79</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>78</v>
@@ -10011,19 +10011,19 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I69" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J69" t="s" s="2">
         <v>301</v>
@@ -10090,16 +10090,16 @@
         <v>300</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>78</v>
@@ -10133,7 +10133,7 @@
         <v>79</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>78</v>
@@ -10208,13 +10208,13 @@
         <v>79</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>312</v>
@@ -10260,7 +10260,7 @@
         <v>78</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K71" t="s" s="2">
         <v>318</v>
@@ -10333,7 +10333,7 @@
         <v>78</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>78</v>
@@ -10367,7 +10367,7 @@
         <v>79</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>78</v>
@@ -10379,7 +10379,7 @@
         <v>78</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>326</v>
@@ -10414,7 +10414,7 @@
         <v>78</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X72" t="s" s="2">
         <v>329</v>
@@ -10444,13 +10444,13 @@
         <v>79</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>78</v>
@@ -10481,10 +10481,10 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>78</v>
@@ -10559,13 +10559,13 @@
         <v>79</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>78</v>
@@ -10599,7 +10599,7 @@
         <v>79</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>78</v>
@@ -10611,7 +10611,7 @@
         <v>78</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>243</v>
@@ -10674,7 +10674,7 @@
         <v>79</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>78</v>
@@ -10707,7 +10707,7 @@
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10726,16 +10726,16 @@
         <v>78</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L75" t="s" s="2">
         <v>248</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10797,7 +10797,7 @@
         <v>78</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>78</v>
@@ -10837,13 +10837,13 @@
         <v>78</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>252</v>
@@ -10852,7 +10852,7 @@
         <v>253</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N76" t="s" s="2">
         <v>254</v>
@@ -10916,13 +10916,13 @@
         <v>78</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>78</v>
@@ -10950,7 +10950,7 @@
         <v>79</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>78</v>
@@ -10962,7 +10962,7 @@
         <v>78</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>341</v>
@@ -11029,13 +11029,13 @@
         <v>79</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>78</v>
@@ -11069,7 +11069,7 @@
         <v>79</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>78</v>
@@ -11081,7 +11081,7 @@
         <v>78</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>349</v>
@@ -11116,7 +11116,7 @@
         <v>78</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X78" t="s" s="2">
         <v>352</v>
@@ -11146,13 +11146,13 @@
         <v>79</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>78</v>
@@ -11233,7 +11233,7 @@
         <v>78</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X79" t="s" s="2">
         <v>218</v>
@@ -11269,7 +11269,7 @@
         <v>78</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>78</v>
@@ -11305,7 +11305,7 @@
         <v>79</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>78</v>
@@ -11381,7 +11381,7 @@
         <v>226</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11390,7 +11390,7 @@
         <v>78</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>236</v>
@@ -11424,7 +11424,7 @@
         <v>79</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>78</v>
@@ -11436,7 +11436,7 @@
         <v>78</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K81" t="s" s="2">
         <v>243</v>
@@ -11499,7 +11499,7 @@
         <v>79</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>78</v>
@@ -11532,7 +11532,7 @@
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11551,16 +11551,16 @@
         <v>78</v>
       </c>
       <c r="J82" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K82" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L82" t="s" s="2">
         <v>248</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -11622,7 +11622,7 @@
         <v>78</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>78</v>
@@ -11662,13 +11662,13 @@
         <v>78</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K83" t="s" s="2">
         <v>252</v>
@@ -11677,7 +11677,7 @@
         <v>253</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N83" t="s" s="2">
         <v>254</v>
@@ -11741,13 +11741,13 @@
         <v>78</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>78</v>
@@ -11772,10 +11772,10 @@
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>78</v>
@@ -11820,7 +11820,7 @@
         <v>78</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X84" t="s" s="2">
         <v>259</v>
@@ -11850,13 +11850,13 @@
         <v>79</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>261</v>
@@ -11975,7 +11975,7 @@
         <v>78</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>78</v>
@@ -12006,19 +12006,19 @@
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I86" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F86" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J86" t="s" s="2">
         <v>278</v>
@@ -12088,13 +12088,13 @@
         <v>79</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>283</v>
@@ -12128,7 +12128,7 @@
         <v>79</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>78</v>
@@ -12140,7 +12140,7 @@
         <v>78</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K87" t="s" s="2">
         <v>289</v>
@@ -12205,13 +12205,13 @@
         <v>79</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>78</v>
@@ -12245,7 +12245,7 @@
         <v>79</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>78</v>
@@ -12257,7 +12257,7 @@
         <v>78</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K88" t="s" s="2">
         <v>295</v>
@@ -12322,13 +12322,13 @@
         <v>79</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>78</v>
@@ -12359,19 +12359,19 @@
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I89" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J89" t="s" s="2">
         <v>301</v>
@@ -12438,16 +12438,16 @@
         <v>300</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>78</v>
@@ -12481,7 +12481,7 @@
         <v>79</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>78</v>
@@ -12556,13 +12556,13 @@
         <v>79</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>312</v>
@@ -12608,7 +12608,7 @@
         <v>78</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K91" t="s" s="2">
         <v>318</v>
@@ -12681,7 +12681,7 @@
         <v>78</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>78</v>
@@ -12715,7 +12715,7 @@
         <v>79</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>78</v>
@@ -12727,7 +12727,7 @@
         <v>78</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K92" t="s" s="2">
         <v>326</v>
@@ -12762,7 +12762,7 @@
         <v>78</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X92" t="s" s="2">
         <v>329</v>
@@ -12792,13 +12792,13 @@
         <v>79</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>78</v>
@@ -12832,7 +12832,7 @@
         <v>79</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>78</v>
@@ -12907,13 +12907,13 @@
         <v>79</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>78</v>
@@ -12947,7 +12947,7 @@
         <v>79</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>78</v>
@@ -12959,7 +12959,7 @@
         <v>78</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K94" t="s" s="2">
         <v>243</v>
@@ -13022,7 +13022,7 @@
         <v>79</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>78</v>
@@ -13055,7 +13055,7 @@
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -13074,16 +13074,16 @@
         <v>78</v>
       </c>
       <c r="J95" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K95" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L95" t="s" s="2">
         <v>248</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -13145,7 +13145,7 @@
         <v>78</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>78</v>
@@ -13185,13 +13185,13 @@
         <v>78</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K96" t="s" s="2">
         <v>252</v>
@@ -13200,7 +13200,7 @@
         <v>253</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N96" t="s" s="2">
         <v>254</v>
@@ -13264,13 +13264,13 @@
         <v>78</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>78</v>
@@ -13298,7 +13298,7 @@
         <v>79</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>78</v>
@@ -13310,7 +13310,7 @@
         <v>78</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K97" t="s" s="2">
         <v>341</v>
@@ -13377,13 +13377,13 @@
         <v>79</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>78</v>
@@ -13417,7 +13417,7 @@
         <v>79</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>78</v>
@@ -13429,7 +13429,7 @@
         <v>78</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K98" t="s" s="2">
         <v>349</v>
@@ -13464,7 +13464,7 @@
         <v>78</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X98" t="s" s="2">
         <v>352</v>
@@ -13494,13 +13494,13 @@
         <v>79</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>78</v>
@@ -13581,7 +13581,7 @@
         <v>78</v>
       </c>
       <c r="W99" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X99" t="s" s="2">
         <v>218</v>
@@ -13617,7 +13617,7 @@
         <v>78</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>78</v>
@@ -13653,7 +13653,7 @@
         <v>79</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>78</v>
@@ -13729,7 +13729,7 @@
         <v>226</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -13738,7 +13738,7 @@
         <v>78</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>236</v>
@@ -13772,7 +13772,7 @@
         <v>79</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>78</v>
@@ -13784,7 +13784,7 @@
         <v>78</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K101" t="s" s="2">
         <v>243</v>
@@ -13847,7 +13847,7 @@
         <v>79</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>78</v>
@@ -13880,7 +13880,7 @@
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -13899,16 +13899,16 @@
         <v>78</v>
       </c>
       <c r="J102" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K102" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L102" t="s" s="2">
         <v>248</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
@@ -13970,7 +13970,7 @@
         <v>78</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>78</v>
@@ -14010,13 +14010,13 @@
         <v>78</v>
       </c>
       <c r="H103" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K103" t="s" s="2">
         <v>252</v>
@@ -14025,7 +14025,7 @@
         <v>253</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N103" t="s" s="2">
         <v>254</v>
@@ -14089,13 +14089,13 @@
         <v>78</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>78</v>
@@ -14120,10 +14120,10 @@
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>78</v>
@@ -14168,7 +14168,7 @@
         <v>78</v>
       </c>
       <c r="W104" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X104" t="s" s="2">
         <v>259</v>
@@ -14198,13 +14198,13 @@
         <v>79</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>261</v>
@@ -14323,7 +14323,7 @@
         <v>78</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>78</v>
@@ -14354,19 +14354,19 @@
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I106" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F106" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J106" t="s" s="2">
         <v>278</v>
@@ -14436,13 +14436,13 @@
         <v>79</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>283</v>
@@ -14476,7 +14476,7 @@
         <v>79</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>78</v>
@@ -14488,7 +14488,7 @@
         <v>78</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K107" t="s" s="2">
         <v>289</v>
@@ -14553,13 +14553,13 @@
         <v>79</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>78</v>
@@ -14593,7 +14593,7 @@
         <v>79</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>78</v>
@@ -14605,7 +14605,7 @@
         <v>78</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K108" t="s" s="2">
         <v>295</v>
@@ -14670,13 +14670,13 @@
         <v>79</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>78</v>
@@ -14707,19 +14707,19 @@
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F109" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I109" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F109" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J109" t="s" s="2">
         <v>301</v>
@@ -14786,16 +14786,16 @@
         <v>300</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>78</v>
@@ -14829,7 +14829,7 @@
         <v>79</v>
       </c>
       <c r="F110" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>78</v>
@@ -14904,13 +14904,13 @@
         <v>79</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>312</v>
@@ -14956,7 +14956,7 @@
         <v>78</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K111" t="s" s="2">
         <v>318</v>
@@ -15029,7 +15029,7 @@
         <v>78</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>78</v>
@@ -15063,7 +15063,7 @@
         <v>79</v>
       </c>
       <c r="F112" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G112" t="s" s="2">
         <v>78</v>
@@ -15075,7 +15075,7 @@
         <v>78</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K112" t="s" s="2">
         <v>326</v>
@@ -15110,7 +15110,7 @@
         <v>78</v>
       </c>
       <c r="W112" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X112" t="s" s="2">
         <v>329</v>
@@ -15140,13 +15140,13 @@
         <v>79</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>78</v>
@@ -15180,7 +15180,7 @@
         <v>79</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>78</v>
@@ -15255,13 +15255,13 @@
         <v>79</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>78</v>
@@ -15295,7 +15295,7 @@
         <v>79</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>78</v>
@@ -15307,7 +15307,7 @@
         <v>78</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K114" t="s" s="2">
         <v>243</v>
@@ -15370,7 +15370,7 @@
         <v>79</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>78</v>
@@ -15403,7 +15403,7 @@
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
@@ -15422,16 +15422,16 @@
         <v>78</v>
       </c>
       <c r="J115" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K115" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K115" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L115" t="s" s="2">
         <v>248</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
@@ -15493,7 +15493,7 @@
         <v>78</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>78</v>
@@ -15533,13 +15533,13 @@
         <v>78</v>
       </c>
       <c r="H116" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I116" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K116" t="s" s="2">
         <v>252</v>
@@ -15548,7 +15548,7 @@
         <v>253</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N116" t="s" s="2">
         <v>254</v>
@@ -15612,13 +15612,13 @@
         <v>78</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>78</v>
@@ -15646,7 +15646,7 @@
         <v>79</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>78</v>
@@ -15658,7 +15658,7 @@
         <v>78</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K117" t="s" s="2">
         <v>341</v>
@@ -15725,13 +15725,13 @@
         <v>79</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>78</v>
@@ -15765,7 +15765,7 @@
         <v>79</v>
       </c>
       <c r="F118" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>78</v>
@@ -15777,7 +15777,7 @@
         <v>78</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K118" t="s" s="2">
         <v>349</v>
@@ -15812,7 +15812,7 @@
         <v>78</v>
       </c>
       <c r="W118" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X118" t="s" s="2">
         <v>352</v>
@@ -15842,13 +15842,13 @@
         <v>79</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>78</v>
@@ -15929,7 +15929,7 @@
         <v>78</v>
       </c>
       <c r="W119" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X119" t="s" s="2">
         <v>218</v>
@@ -15965,7 +15965,7 @@
         <v>78</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>78</v>
@@ -15996,10 +15996,10 @@
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>78</v>
@@ -16075,16 +16075,16 @@
         <v>370</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>78</v>
@@ -16118,7 +16118,7 @@
         <v>79</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>78</v>
@@ -16130,7 +16130,7 @@
         <v>78</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K121" t="s" s="2">
         <v>243</v>
@@ -16193,7 +16193,7 @@
         <v>79</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>78</v>
@@ -16226,7 +16226,7 @@
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -16245,16 +16245,16 @@
         <v>78</v>
       </c>
       <c r="J122" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K122" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K122" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L122" t="s" s="2">
         <v>248</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
@@ -16316,7 +16316,7 @@
         <v>78</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ122" t="s" s="2">
         <v>78</v>
@@ -16356,13 +16356,13 @@
         <v>78</v>
       </c>
       <c r="H123" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I123" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K123" t="s" s="2">
         <v>252</v>
@@ -16371,7 +16371,7 @@
         <v>253</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N123" t="s" s="2">
         <v>254</v>
@@ -16435,13 +16435,13 @@
         <v>78</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>78</v>
@@ -16469,7 +16469,7 @@
         <v>79</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>78</v>
@@ -16481,7 +16481,7 @@
         <v>78</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K124" t="s" s="2">
         <v>382</v>
@@ -16546,13 +16546,13 @@
         <v>79</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>78</v>
@@ -16583,19 +16583,19 @@
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F125" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I125" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F125" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I125" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J125" t="s" s="2">
         <v>278</v>
@@ -16660,16 +16660,16 @@
         <v>387</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>78</v>
@@ -16715,7 +16715,7 @@
         <v>78</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K126" t="s" s="2">
         <v>394</v>
@@ -16750,7 +16750,7 @@
         <v>78</v>
       </c>
       <c r="W126" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X126" t="s" s="2">
         <v>397</v>
@@ -16786,7 +16786,7 @@
         <v>78</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>78</v>
@@ -16890,7 +16890,7 @@
         <v>78</v>
       </c>
       <c r="AD127" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE127" t="s" s="2">
         <v>401</v>
@@ -16917,7 +16917,7 @@
         <v>410</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AN127" t="s" s="2">
         <v>411</v>
@@ -16939,7 +16939,7 @@
         <v>79</v>
       </c>
       <c r="F128" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G128" t="s" s="2">
         <v>78</v>
@@ -16951,7 +16951,7 @@
         <v>78</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K128" t="s" s="2">
         <v>243</v>
@@ -17014,7 +17014,7 @@
         <v>79</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>78</v>
@@ -17047,7 +17047,7 @@
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -17066,16 +17066,16 @@
         <v>78</v>
       </c>
       <c r="J129" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K129" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K129" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L129" t="s" s="2">
         <v>248</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
@@ -17137,7 +17137,7 @@
         <v>78</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>78</v>
@@ -17177,13 +17177,13 @@
         <v>78</v>
       </c>
       <c r="H130" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I130" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K130" t="s" s="2">
         <v>252</v>
@@ -17192,7 +17192,7 @@
         <v>253</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N130" t="s" s="2">
         <v>254</v>
@@ -17256,13 +17256,13 @@
         <v>78</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL130" t="s" s="2">
         <v>78</v>
@@ -17290,16 +17290,16 @@
         <v>79</v>
       </c>
       <c r="F131" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G131" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H131" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I131" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I131" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J131" t="s" s="2">
         <v>417</v>
@@ -17365,13 +17365,13 @@
         <v>79</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>78</v>
@@ -17383,7 +17383,7 @@
         <v>420</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AN131" t="s" s="2">
         <v>78</v>
@@ -17405,7 +17405,7 @@
         <v>79</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>78</v>
@@ -17417,7 +17417,7 @@
         <v>78</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K132" t="s" s="2">
         <v>423</v>
@@ -17454,7 +17454,7 @@
         <v>78</v>
       </c>
       <c r="W132" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X132" t="s" s="2">
         <v>427</v>
@@ -17484,13 +17484,13 @@
         <v>79</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ132" t="s" s="2">
         <v>78</v>
@@ -17502,7 +17502,7 @@
         <v>430</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AN132" t="s" s="2">
         <v>431</v>
@@ -17524,7 +17524,7 @@
         <v>79</v>
       </c>
       <c r="F133" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G133" t="s" s="2">
         <v>78</v>
@@ -17536,7 +17536,7 @@
         <v>78</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K133" t="s" s="2">
         <v>434</v>
@@ -17571,7 +17571,7 @@
         <v>78</v>
       </c>
       <c r="W133" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X133" t="s" s="2">
         <v>437</v>
@@ -17601,13 +17601,13 @@
         <v>79</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>78</v>
@@ -17641,7 +17641,7 @@
         <v>79</v>
       </c>
       <c r="F134" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G134" t="s" s="2">
         <v>78</v>
@@ -17653,7 +17653,7 @@
         <v>78</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K134" t="s" s="2">
         <v>444</v>
@@ -17690,7 +17690,7 @@
         <v>78</v>
       </c>
       <c r="W134" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X134" t="s" s="2">
         <v>445</v>
@@ -17720,13 +17720,13 @@
         <v>79</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>78</v>
@@ -17772,7 +17772,7 @@
         <v>78</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K135" t="s" s="2">
         <v>453</v>
@@ -17809,7 +17809,7 @@
         <v>78</v>
       </c>
       <c r="W135" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X135" t="s" s="2">
         <v>457</v>
@@ -17845,7 +17845,7 @@
         <v>78</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>78</v>
@@ -17879,19 +17879,19 @@
         <v>79</v>
       </c>
       <c r="F136" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G136" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H136" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I136" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I136" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J136" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K136" t="s" s="2">
         <v>462</v>
@@ -17958,13 +17958,13 @@
         <v>79</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>466</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ136" t="s" s="2">
         <v>78</v>
@@ -17998,7 +17998,7 @@
         <v>79</v>
       </c>
       <c r="F137" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G137" t="s" s="2">
         <v>78</v>
@@ -18010,7 +18010,7 @@
         <v>78</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K137" t="s" s="2">
         <v>471</v>
@@ -18075,13 +18075,13 @@
         <v>79</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ137" t="s" s="2">
         <v>78</v>
@@ -18115,16 +18115,16 @@
         <v>79</v>
       </c>
       <c r="F138" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G138" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H138" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I138" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I138" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J138" t="s" s="2">
         <v>476</v>
@@ -18194,13 +18194,13 @@
         <v>79</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>466</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>78</v>
@@ -18317,7 +18317,7 @@
         <v>78</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>78</v>
@@ -18351,7 +18351,7 @@
         <v>79</v>
       </c>
       <c r="F140" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G140" t="s" s="2">
         <v>78</v>
@@ -18363,7 +18363,7 @@
         <v>78</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K140" t="s" s="2">
         <v>243</v>
@@ -18426,7 +18426,7 @@
         <v>79</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>78</v>
@@ -18459,7 +18459,7 @@
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
@@ -18478,16 +18478,16 @@
         <v>78</v>
       </c>
       <c r="J141" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K141" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K141" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L141" t="s" s="2">
         <v>248</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" t="s" s="2">
@@ -18549,7 +18549,7 @@
         <v>78</v>
       </c>
       <c r="AI141" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ141" t="s" s="2">
         <v>78</v>
@@ -18589,13 +18589,13 @@
         <v>78</v>
       </c>
       <c r="H142" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I142" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K142" t="s" s="2">
         <v>252</v>
@@ -18604,7 +18604,7 @@
         <v>253</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N142" t="s" s="2">
         <v>254</v>
@@ -18668,13 +18668,13 @@
         <v>78</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ142" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL142" t="s" s="2">
         <v>78</v>
@@ -18699,10 +18699,10 @@
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F143" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G143" t="s" s="2">
         <v>78</v>
@@ -18714,7 +18714,7 @@
         <v>78</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K143" t="s" s="2">
         <v>493</v>
@@ -18774,16 +18774,16 @@
         <v>492</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI143" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ143" t="s" s="2">
         <v>78</v>
@@ -18814,10 +18814,10 @@
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F144" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G144" t="s" s="2">
         <v>78</v>
@@ -18893,16 +18893,16 @@
         <v>496</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ144" t="s" s="2">
         <v>78</v>
@@ -18935,10 +18935,10 @@
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F145" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G145" t="s" s="2">
         <v>78</v>
@@ -19035,7 +19035,7 @@
         <v>410</v>
       </c>
       <c r="AM145" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AN145" t="s" s="2">
         <v>411</v>
@@ -19057,7 +19057,7 @@
         <v>79</v>
       </c>
       <c r="F146" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G146" t="s" s="2">
         <v>78</v>
@@ -19069,7 +19069,7 @@
         <v>78</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K146" t="s" s="2">
         <v>243</v>
@@ -19132,7 +19132,7 @@
         <v>79</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>78</v>
@@ -19165,7 +19165,7 @@
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
@@ -19184,16 +19184,16 @@
         <v>78</v>
       </c>
       <c r="J147" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K147" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K147" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L147" t="s" s="2">
         <v>248</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" t="s" s="2">
@@ -19255,7 +19255,7 @@
         <v>78</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ147" t="s" s="2">
         <v>78</v>
@@ -19295,13 +19295,13 @@
         <v>78</v>
       </c>
       <c r="H148" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I148" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K148" t="s" s="2">
         <v>252</v>
@@ -19310,7 +19310,7 @@
         <v>253</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N148" t="s" s="2">
         <v>254</v>
@@ -19374,13 +19374,13 @@
         <v>78</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ148" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL148" t="s" s="2">
         <v>78</v>
@@ -19405,19 +19405,19 @@
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F149" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G149" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H149" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I149" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F149" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I149" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J149" t="s" s="2">
         <v>505</v>
@@ -19483,13 +19483,13 @@
         <v>79</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ149" t="s" s="2">
         <v>78</v>
@@ -19501,7 +19501,7 @@
         <v>420</v>
       </c>
       <c r="AM149" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AN149" t="s" s="2">
         <v>78</v>
@@ -19520,10 +19520,10 @@
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F150" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G150" t="s" s="2">
         <v>78</v>
@@ -19535,7 +19535,7 @@
         <v>78</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K150" t="s" s="2">
         <v>423</v>
@@ -19572,7 +19572,7 @@
         <v>78</v>
       </c>
       <c r="W150" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X150" t="s" s="2">
         <v>427</v>
@@ -19602,13 +19602,13 @@
         <v>79</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ150" t="s" s="2">
         <v>78</v>
@@ -19620,7 +19620,7 @@
         <v>430</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AN150" t="s" s="2">
         <v>431</v>
@@ -19642,7 +19642,7 @@
         <v>79</v>
       </c>
       <c r="F151" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G151" t="s" s="2">
         <v>78</v>
@@ -19654,7 +19654,7 @@
         <v>78</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K151" t="s" s="2">
         <v>434</v>
@@ -19689,7 +19689,7 @@
         <v>78</v>
       </c>
       <c r="W151" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X151" t="s" s="2">
         <v>437</v>
@@ -19719,13 +19719,13 @@
         <v>79</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ151" t="s" s="2">
         <v>78</v>
@@ -19759,7 +19759,7 @@
         <v>79</v>
       </c>
       <c r="F152" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G152" t="s" s="2">
         <v>78</v>
@@ -19771,7 +19771,7 @@
         <v>78</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K152" t="s" s="2">
         <v>444</v>
@@ -19808,7 +19808,7 @@
         <v>78</v>
       </c>
       <c r="W152" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X152" t="s" s="2">
         <v>445</v>
@@ -19838,13 +19838,13 @@
         <v>79</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ152" t="s" s="2">
         <v>78</v>
@@ -19890,7 +19890,7 @@
         <v>78</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K153" t="s" s="2">
         <v>453</v>
@@ -19927,7 +19927,7 @@
         <v>78</v>
       </c>
       <c r="W153" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X153" t="s" s="2">
         <v>457</v>
@@ -19963,7 +19963,7 @@
         <v>78</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ153" t="s" s="2">
         <v>78</v>
@@ -19997,19 +19997,19 @@
         <v>79</v>
       </c>
       <c r="F154" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G154" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H154" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I154" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G154" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H154" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I154" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J154" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K154" t="s" s="2">
         <v>462</v>
@@ -20076,13 +20076,13 @@
         <v>79</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>466</v>
       </c>
       <c r="AI154" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ154" t="s" s="2">
         <v>78</v>
@@ -20116,7 +20116,7 @@
         <v>79</v>
       </c>
       <c r="F155" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G155" t="s" s="2">
         <v>78</v>
@@ -20128,7 +20128,7 @@
         <v>78</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K155" t="s" s="2">
         <v>471</v>
@@ -20193,13 +20193,13 @@
         <v>79</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ155" t="s" s="2">
         <v>78</v>
@@ -20233,16 +20233,16 @@
         <v>79</v>
       </c>
       <c r="F156" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G156" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H156" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I156" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G156" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H156" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I156" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J156" t="s" s="2">
         <v>476</v>
@@ -20312,13 +20312,13 @@
         <v>79</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>466</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>78</v>
@@ -20435,7 +20435,7 @@
         <v>78</v>
       </c>
       <c r="AI157" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ157" t="s" s="2">
         <v>78</v>
@@ -20469,7 +20469,7 @@
         <v>79</v>
       </c>
       <c r="F158" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G158" t="s" s="2">
         <v>78</v>
@@ -20481,7 +20481,7 @@
         <v>78</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K158" t="s" s="2">
         <v>243</v>
@@ -20544,7 +20544,7 @@
         <v>79</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH158" t="s" s="2">
         <v>78</v>
@@ -20577,7 +20577,7 @@
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
@@ -20596,16 +20596,16 @@
         <v>78</v>
       </c>
       <c r="J159" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K159" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K159" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L159" t="s" s="2">
         <v>248</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" t="s" s="2">
@@ -20667,7 +20667,7 @@
         <v>78</v>
       </c>
       <c r="AI159" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ159" t="s" s="2">
         <v>78</v>
@@ -20707,13 +20707,13 @@
         <v>78</v>
       </c>
       <c r="H160" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I160" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K160" t="s" s="2">
         <v>252</v>
@@ -20722,7 +20722,7 @@
         <v>253</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N160" t="s" s="2">
         <v>254</v>
@@ -20786,13 +20786,13 @@
         <v>78</v>
       </c>
       <c r="AI160" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ160" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL160" t="s" s="2">
         <v>78</v>
@@ -20817,10 +20817,10 @@
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F161" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G161" t="s" s="2">
         <v>78</v>
@@ -20832,7 +20832,7 @@
         <v>78</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K161" t="s" s="2">
         <v>493</v>
@@ -20892,16 +20892,16 @@
         <v>492</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ161" t="s" s="2">
         <v>78</v>
@@ -20932,10 +20932,10 @@
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F162" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G162" t="s" s="2">
         <v>78</v>
@@ -21011,16 +21011,16 @@
         <v>496</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ162" t="s" s="2">
         <v>78</v>
